--- a/backend/resultdb/house해석.xlsx
+++ b/backend/resultdb/house해석.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didco\OneDrive\문서\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\didco\OneDrive\바탕 화면\github folder\ai-htp-project\backend\resultdb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062BDA8A-7EE8-404E-A347-E7CFBE5D96E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7265F8B2-CEE3-4655-B5B9-F2FF466BBEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{301AFB90-9D74-4026-917E-D23F1B84735D}"/>
   </bookViews>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -582,7 +571,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -590,7 +579,7 @@
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.59765625" customWidth="1"/>
-    <col min="4" max="4" width="86.5" customWidth="1"/>
+    <col min="4" max="4" width="126.09765625" customWidth="1"/>
     <col min="5" max="5" width="62.796875" customWidth="1"/>
     <col min="6" max="6" width="4.3984375" customWidth="1"/>
     <col min="12" max="12" width="8.796875" customWidth="1"/>
@@ -612,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -629,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="87" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="C4">
         <v>1</v>
       </c>
@@ -651,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -668,7 +657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C8">
         <v>1</v>
       </c>
@@ -679,7 +668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="C9">
         <v>2</v>
       </c>
@@ -690,7 +679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C10">
         <v>3</v>
       </c>
@@ -701,7 +690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="C11">
         <v>4</v>
       </c>
@@ -731,7 +720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>4</v>
       </c>
@@ -749,7 +738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="C16">
         <v>1</v>
       </c>
@@ -760,7 +749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="C17">
         <v>2</v>
       </c>
@@ -771,7 +760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="C18">
         <v>3</v>
       </c>
@@ -790,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -810,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>1</v>
       </c>
@@ -824,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="52.2" x14ac:dyDescent="0.4">
       <c r="C23">
         <v>2</v>
       </c>
@@ -845,6 +834,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x0101009E2A83AC4430744089FCD54DEC6858A6" ma:contentTypeVersion="2" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="2a5813df4f6147c75a030289a500999d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f64adc3a-e01f-4fe5-9547-8d6b6cd5e5fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ce5a838bb3f052f98a10ecf6b6e32d6" ns3:_="">
     <xsd:import namespace="f64adc3a-e01f-4fe5-9547-8d6b6cd5e5fe"/>
@@ -976,22 +980,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4688780F-378E-4B00-ADB0-278C6AF0E5F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f64adc3a-e01f-4fe5-9547-8d6b6cd5e5fe"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBA9C378-27FA-4BED-A96D-7E5C881ED675}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52594F8F-5198-442D-AA9F-484FF2867241}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1007,28 +1020,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBA9C378-27FA-4BED-A96D-7E5C881ED675}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4688780F-378E-4B00-ADB0-278C6AF0E5F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="f64adc3a-e01f-4fe5-9547-8d6b6cd5e5fe"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>